--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3114402890205383</v>
+        <v>-1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3417553938925266</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05834510922431946</v>
+        <v>5.927681922912598e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1886941492557526</v>
+        <v>9.09268856048584e-05</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1446434259414673</v>
+        <v>-1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1975680980831385</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3169296979904175</v>
+        <v>5.584955215454102e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1365393847227097</v>
+        <v>0.0001008808612823486</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1034467145800591</v>
+        <v>-1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1471874667331576</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2558879256248474</v>
+        <v>5.315244197845459e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2748188227415085</v>
+        <v>0.000103391706943512</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1195158585906029</v>
+        <v>-1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1840667799115181</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03979378938674927</v>
+        <v>6.470084190368652e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2482874393463135</v>
+        <v>9.34898853302002e-05</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1204734444618225</v>
+        <v>-1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1603408455848694</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3664575219154358</v>
+        <v>5.459785461425781e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2448426485061646</v>
+        <v>8.07344913482666e-05</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1036971360445023</v>
+        <v>-1</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2292985990643501</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3942930698394775</v>
+        <v>5.78761100769043e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1136894226074219</v>
+        <v>0.0001015663146972656</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +581,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5436591506004333</v>
+        <v>-1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4088047966361046</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4634683132171631</v>
+        <v>5.516409873962402e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1615533828735352</v>
+        <v>8.788704872131348e-05</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1160030663013458</v>
+        <v>-1</v>
       </c>
       <c r="C9" t="n">
-        <v>0.217104222625494</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3203192353248596</v>
+        <v>5.093216896057129e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3307097554206848</v>
+        <v>8.669495582580566e-05</v>
       </c>
     </row>
   </sheetData>

--- a/test_results.xlsx
+++ b/test_results.xlsx
@@ -473,10 +473,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>5.927681922912598e-05</v>
+        <v>1.543760299682617e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>9.09268856048584e-05</v>
+        <v>2.503395080566406e-05</v>
       </c>
     </row>
     <row r="3">
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.584955215454102e-05</v>
+        <v>1.358985900878906e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0001008808612823486</v>
+        <v>2.458691596984863e-05</v>
       </c>
     </row>
     <row r="4">
@@ -511,10 +511,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5.315244197845459e-05</v>
+        <v>1.373887062072754e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000103391706943512</v>
+        <v>2.962350845336914e-05</v>
       </c>
     </row>
     <row r="5">
@@ -530,10 +530,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>6.470084190368652e-05</v>
+        <v>1.546740531921387e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>9.34898853302002e-05</v>
+        <v>2.399086952209473e-05</v>
       </c>
     </row>
     <row r="6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>5.459785461425781e-05</v>
+        <v>1.469254493713379e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>8.07344913482666e-05</v>
+        <v>2.960115671157837e-05</v>
       </c>
     </row>
     <row r="7">
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>5.78761100769043e-05</v>
+        <v>1.412630081176758e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0001015663146972656</v>
+        <v>2.381205558776855e-05</v>
       </c>
     </row>
     <row r="8">
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>5.516409873962402e-05</v>
+        <v>1.427531242370605e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>8.788704872131348e-05</v>
+        <v>2.47657299041748e-05</v>
       </c>
     </row>
     <row r="9">
@@ -606,10 +606,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>5.093216896057129e-05</v>
+        <v>1.510977745056152e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>8.669495582580566e-05</v>
+        <v>2.703070640563965e-05</v>
       </c>
     </row>
   </sheetData>
